--- a/results/AdaBoostClassifierDecisionTreeClassifier_randomsearch-train_df.xlsx
+++ b/results/AdaBoostClassifierDecisionTreeClassifier_randomsearch-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8372093023255814</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.86</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.9139784946236559</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.9139784946236559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.9139784946236559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.9139784946236559</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8527777777777779</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8645933014354067</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8486046511627907</v>
+        <v>0.9131652661064424</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8715651135005974</v>
+        <v>0.9289387564282375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.9139784946236559</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8506876719179794</v>
+        <v>0.9147013644167344</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>

--- a/results/AdaBoostClassifierDecisionTreeClassifier_randomsearch-train_df.xlsx
+++ b/results/AdaBoostClassifierDecisionTreeClassifier_randomsearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8260869565217391</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.8545454545454545</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.9215686274509803</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.978494623655914</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9130434782608696</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9272727272727272</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9131652661064424</v>
+        <v>0.9784722222222222</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9289387564282375</v>
+        <v>0.9794296400187003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9147013644167344</v>
+        <v>0.9785095579450418</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7755102040816326</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8735632183908045</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.8</v>
-      </c>
       <c r="D8" t="n">
-        <v>0.888888888888889</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.989247311827957</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8877551020408163</v>
+        <v>0.9888888888888889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8812260536398467</v>
+        <v>0.9892273832966524</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9082729866140005</v>
+        <v>0.9894862604540022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8826267869649405</v>
+        <v>0.9892522939607831</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8085106382978723</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941176470588235</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0.9777777777777777</v>
+      </c>
+      <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.8363636363636363</v>
-      </c>
       <c r="D13" t="n">
-        <v>0.9108910891089108</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.989247311827957</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9042553191489362</v>
+        <v>0.9888888888888889</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9181818181818182</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9025043680838671</v>
+        <v>0.9892273832966524</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9217570350034316</v>
+        <v>0.9894862604540022</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9040374246153268</v>
+        <v>0.9892522939607831</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8444444444444444</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9156626506024096</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>0.9361702127659575</v>
+      </c>
+      <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.8727272727272727</v>
-      </c>
       <c r="D18" t="n">
-        <v>0.9320388349514563</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9222222222222223</v>
+        <v>0.9680851063829787</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9363636363636363</v>
+        <v>0.9693877551020409</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9238507427769329</v>
+        <v>0.967727009832273</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9364396654719236</v>
+        <v>0.9698009608785175</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9247311827956989</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="D21" t="n">
-        <v>0.925347490808835</v>
+        <v>0.9677643239612679</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8260869565217391</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0.9361702127659575</v>
+      </c>
+      <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.8545454545454545</v>
-      </c>
       <c r="D23" t="n">
-        <v>0.9215686274509803</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9130434782608696</v>
+        <v>0.9680851063829787</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9272727272727272</v>
+        <v>0.9693877551020409</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9131652661064424</v>
+        <v>0.967727009832273</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9289387564282375</v>
+        <v>0.9698009608785175</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9147013644167344</v>
+        <v>0.9677643239612679</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
